--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1105795.342355842</v>
+        <v>1102826.413271499</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7778725.998692569</v>
+        <v>7757679.40032012</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11464435.06262815</v>
+        <v>11465178.79711322</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>327.7725728859739</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,13 +713,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>244.5775245541875</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>131.8380910789865</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>24.08852816170401</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>76.32654050176464</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>30.42463580629209</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>97.64711324990996</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>206.0542719083141</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>120.6353666620237</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>80.71262740536827</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492427</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1819,16 +1819,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>171.7647334826866</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>169.6626645428366</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>73.79299727940931</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>25.23055120993143</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>113.5103646250812</v>
       </c>
       <c r="F25" t="n">
-        <v>64.3930673550186</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>114.572020073064</v>
+        <v>74.75769145492352</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2807,10 +2807,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292629</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851119</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247759</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734101331</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145491955</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>11.83422226195233</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004751</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.769025331442</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3044,10 +3044,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292652</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881762</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851122</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247769</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734103036</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3193,16 +3193,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>167.1308651661244</v>
+        <v>126.0955237083915</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.6240527793847</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.1631028869116</v>
+        <v>365.2728917710082</v>
       </c>
       <c r="D35" t="n">
-        <v>354.5732527365871</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.8205811881659</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.7662568576155</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.7334871286617</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H35" t="n">
-        <v>283.4533031204484</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.50280171672371</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0872679533782</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
-        <v>250.7991071035504</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V35" t="n">
-        <v>327.642469586039</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.1311798333171</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.6213117943731</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.1281497719577</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3360,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.7221912978414</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.1370322145319</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.5056841341164</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>131.6267707433218</v>
       </c>
       <c r="F37" t="n">
-        <v>145.3112591388353</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.432263993071</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>20.99724846811148</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
-        <v>217.3722055786659</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0756626643245</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V37" t="n">
-        <v>252.0278544397321</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.4132094524951</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.5998665049412</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.4748644679989</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3512,13 +3512,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G38" t="n">
-        <v>408.3062316354152</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H38" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T38" t="n">
         <v>199.1970568374742</v>
@@ -3597,7 +3597,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T39" t="n">
         <v>188.3907690366107</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>175.6708051668789</v>
+        <v>175.561016282783</v>
       </c>
       <c r="C40" t="n">
-        <v>118.1414627364088</v>
+        <v>162.9758571994736</v>
       </c>
       <c r="D40" t="n">
-        <v>144.4542980031539</v>
+        <v>144.3445091190581</v>
       </c>
       <c r="E40" t="n">
-        <v>142.2727876315107</v>
+        <v>0.5698866643580248</v>
       </c>
       <c r="F40" t="n">
-        <v>141.2598730078728</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>161.3808778621085</v>
+        <v>161.2710889780127</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>62.90978769192964</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>177.0675244593048</v>
       </c>
       <c r="T40" t="n">
-        <v>213.3208194477034</v>
+        <v>213.2110305636076</v>
       </c>
       <c r="U40" t="n">
-        <v>282.024276533362</v>
+        <v>281.9144876492662</v>
       </c>
       <c r="V40" t="n">
-        <v>247.9764683087696</v>
+        <v>247.8666794246737</v>
       </c>
       <c r="W40" t="n">
-        <v>282.3618233215325</v>
+        <v>282.2520344374367</v>
       </c>
       <c r="X40" t="n">
-        <v>221.5484803739787</v>
+        <v>221.4386914898829</v>
       </c>
       <c r="Y40" t="n">
-        <v>214.4234783370364</v>
+        <v>214.3136894529405</v>
       </c>
     </row>
     <row r="41">
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672664</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.151898483957</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035415</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>121.3390400318983</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082604</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>140.447130262496</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>115.3590671772831</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.70965412973833</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.08582897641303</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437882</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>192.387071848091</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337495</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091571</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445519</v>
+        <v>261.4280757219201</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743663</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374239</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672664</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839569</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035414</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>121.3390400318983</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082603</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>140.447130262496</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>115.3590671772831</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.70965412973834</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.085828976413</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437882</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>192.3870718480909</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337495</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091571</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219201</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743662</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374239</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1610.120910258947</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="C2" t="n">
-        <v>1241.158393318536</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2000.260242234759</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2000.260242234759</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1610.120910258947</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600564</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="C4" t="n">
-        <v>529.7758821321495</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="D4" t="n">
-        <v>379.6592427198137</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511404</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600564</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600564</v>
+        <v>211.6471865296039</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1568.353113282533</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.353113282533</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4571,13 +4571,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2672.817244390239</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2496.639756704409</v>
       </c>
       <c r="T5" t="n">
-        <v>2565.022885890367</v>
+        <v>2278.005089676471</v>
       </c>
       <c r="U5" t="n">
-        <v>2311.261100528459</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.261100528459</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.492445258345</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="X5" t="n">
-        <v>1958.492445258345</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y5" t="n">
-        <v>1568.353113282533</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4647,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>338.1849863041093</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W7" t="n">
-        <v>519.833451134349</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X7" t="n">
-        <v>519.833451134349</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>519.833451134349</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>1040.216121848822</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>671.2536049084106</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>312.9879063016601</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>312.9879063016601</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>306.0424055524566</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2433.984773358499</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2102.921886014929</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>1750.153230744814</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X8" t="n">
-        <v>1750.153230744814</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y8" t="n">
-        <v>1750.153230744814</v>
+        <v>1426.815961912944</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4890,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="W10" t="n">
-        <v>184.0273259635867</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="X10" t="n">
-        <v>184.0273259635867</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.0273259635867</v>
+        <v>224.6669506791649</v>
       </c>
     </row>
     <row r="11">
@@ -5030,37 +5030,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1404.507041060941</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2383.057343890769</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468568</v>
@@ -5118,13 +5118,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390116</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5139,7 +5139,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5148,7 +5148,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447819</v>
@@ -5157,13 +5157,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>217.4149401676103</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>217.4149401676103</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>217.4149401676103</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5212,7 +5212,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1866.513008862231</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1866.513008862231</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1611.828520656344</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="W13" t="n">
-        <v>1530.300614186275</v>
+        <v>619.8559841413801</v>
       </c>
       <c r="X13" t="n">
-        <v>1302.311063288258</v>
+        <v>619.8559841413801</v>
       </c>
       <c r="Y13" t="n">
-        <v>1302.311063288258</v>
+        <v>399.0634049978499</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5264,13 +5264,13 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5288,13 +5288,13 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188666</v>
@@ -5306,22 +5306,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5331,64 +5331,64 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>877.1197344942217</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>708.1835515663148</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>558.066912153979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>410.1538185715859</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
         <v>95.56103444839442</v>
@@ -5440,10 +5440,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
         <v>1346.796070598116</v>
@@ -5467,19 +5467,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1453.060509258584</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1279.560778467991</v>
+        <v>909.2731541783412</v>
       </c>
       <c r="W16" t="n">
-        <v>1279.560778467991</v>
+        <v>619.8559841413805</v>
       </c>
       <c r="X16" t="n">
-        <v>1279.560778467991</v>
+        <v>391.8664332433632</v>
       </c>
       <c r="Y16" t="n">
-        <v>1058.768199324461</v>
+        <v>171.0738540998331</v>
       </c>
     </row>
     <row r="17">
@@ -5492,49 +5492,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>3329.011433084685</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3831.983903964022</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4226.7582703212</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4685.236472830188</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5543,22 +5543,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089897</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468572</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>388.668168728447</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="C19" t="n">
-        <v>388.668168728447</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D19" t="n">
-        <v>388.668168728447</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E19" t="n">
-        <v>388.668168728447</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5677,10 +5677,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N19" t="n">
         <v>1346.796070598116</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1563.200421843082</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1308.515933637195</v>
+        <v>1089.419261293915</v>
       </c>
       <c r="W19" t="n">
-        <v>1019.098763600234</v>
+        <v>800.0020912569551</v>
       </c>
       <c r="X19" t="n">
-        <v>791.1092127022168</v>
+        <v>572.0125403589376</v>
       </c>
       <c r="Y19" t="n">
-        <v>570.3166335586867</v>
+        <v>572.0125403589376</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,28 +5750,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>2915.526830679739</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5832,7 +5832,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
         <v>794.2006632320243</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>583.552317416536</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>583.552317416536</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862231</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1644.746393431757</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1355.643526557401</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1100.959038351514</v>
+        <v>999.1036114208124</v>
       </c>
       <c r="W22" t="n">
-        <v>811.5418683145533</v>
+        <v>709.6864413838517</v>
       </c>
       <c r="X22" t="n">
-        <v>583.552317416536</v>
+        <v>481.6968904858344</v>
       </c>
       <c r="Y22" t="n">
-        <v>583.552317416536</v>
+        <v>260.9043113423043</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,31 +5987,31 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364128</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193956</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420603</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
         <v>4667.761053946815</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6042,64 +6042,64 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>941.4904761572599</v>
+        <v>210.2179684131229</v>
       </c>
       <c r="C25" t="n">
-        <v>772.5542932293531</v>
+        <v>210.2179684131229</v>
       </c>
       <c r="D25" t="n">
-        <v>622.4376538170175</v>
+        <v>210.2179684131229</v>
       </c>
       <c r="E25" t="n">
-        <v>474.5245602346243</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6145,7 +6145,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
         <v>344.6708498442063</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1412.55611102446</v>
+        <v>909.2731541783405</v>
       </c>
       <c r="W25" t="n">
-        <v>1123.1389409875</v>
+        <v>619.85598414138</v>
       </c>
       <c r="X25" t="n">
-        <v>1123.1389409875</v>
+        <v>391.8664332433626</v>
       </c>
       <c r="Y25" t="n">
-        <v>1123.1389409875</v>
+        <v>391.8664332433626</v>
       </c>
     </row>
     <row r="26">
@@ -6218,7 +6218,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6227,25 +6227,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1803.682313196074</v>
+        <v>1076.848340014667</v>
       </c>
       <c r="M26" t="n">
-        <v>2337.214217867999</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N26" t="n">
-        <v>3316.966490094645</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
@@ -6309,7 +6309,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6321,22 +6321,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>558.6274977408367</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>389.6913148129298</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>389.6913148129298</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>241.7782212305367</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>241.7782212305367</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305367</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6382,10 +6382,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1412.55611102446</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W28" t="n">
-        <v>1123.138940987499</v>
+        <v>619.8559841413797</v>
       </c>
       <c r="X28" t="n">
-        <v>895.149390089482</v>
+        <v>391.8664332433624</v>
       </c>
       <c r="Y28" t="n">
-        <v>674.3568109459519</v>
+        <v>171.0738540998323</v>
       </c>
     </row>
     <row r="29">
@@ -6440,73 +6440,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551623</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001588</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074201</v>
+        <v>357.0540087506729</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427198</v>
+        <v>690.8733824405182</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196075</v>
+        <v>1141.907595688926</v>
       </c>
       <c r="M29" t="n">
-        <v>2337.214217868</v>
+        <v>2120.457898518753</v>
       </c>
       <c r="N29" t="n">
-        <v>3316.966490094646</v>
+        <v>2667.236715577534</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906987</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.556453353932</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6516,52 +6516,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.967878549486</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.433320576371</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390103</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K30" t="n">
         <v>427.5025029193577</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320232</v>
+        <v>794.200663232022</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.476988454337</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.00003200879</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.961311426844</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902946</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6573,7 +6573,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>720.6978970137303</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>551.7617140858234</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>401.6450746734877</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>253.7319810910946</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>253.7319810910946</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6619,52 +6619,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953297</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442056</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927012</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.38769389225</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598114</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518527</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952185</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.3434661047</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862227</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689054</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.06050925858</v>
       </c>
       <c r="U31" t="n">
-        <v>1667.240599230348</v>
+        <v>1163.957642384223</v>
       </c>
       <c r="V31" t="n">
-        <v>1412.556111024461</v>
+        <v>909.2731541783365</v>
       </c>
       <c r="W31" t="n">
-        <v>1123.1389409875</v>
+        <v>619.8559841413758</v>
       </c>
       <c r="X31" t="n">
-        <v>1123.1389409875</v>
+        <v>391.8664332433584</v>
       </c>
       <c r="Y31" t="n">
-        <v>902.34636184397</v>
+        <v>171.0738540998283</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089263</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074186</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972631</v>
+        <v>1070.83252492416</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364141</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193967</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420611</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750063</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107239</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6728,7 +6728,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6753,52 +6753,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.59277249732</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216193</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494863</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468567</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939011</v>
+        <v>189.2383039390103</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919357</v>
+        <v>427.5025029193577</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320206</v>
+        <v>794.2006632320232</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454334</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.0000320088</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426853</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902954</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6810,19 +6810,19 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>726.3303343661178</v>
+        <v>264.4972173763017</v>
       </c>
       <c r="C34" t="n">
-        <v>557.3941514382109</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>557.3941514382109</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>409.4810578558178</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>409.4810578558178</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305367</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6856,52 +6856,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>140.6836668953295</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442051</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927004</v>
+        <v>661.2306482927028</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892248</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598112</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518524</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952183</v>
+        <v>1878.73316995219</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104697</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104697</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104697</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104697</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U34" t="n">
-        <v>1667.240599230341</v>
+        <v>1163.957642384229</v>
       </c>
       <c r="V34" t="n">
-        <v>1412.556111024454</v>
+        <v>909.2731541783418</v>
       </c>
       <c r="W34" t="n">
-        <v>1123.138940987493</v>
+        <v>619.8559841413812</v>
       </c>
       <c r="X34" t="n">
-        <v>895.1493900894758</v>
+        <v>391.8664332433639</v>
       </c>
       <c r="Y34" t="n">
-        <v>726.3303343661178</v>
+        <v>264.4972173763017</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.564121551396</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.712502473707</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.55770172968</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.880346994159</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.0053400672746</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G35" t="n">
-        <v>380.1331308464046</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3125385470849</v>
+        <v>424.1437450015218</v>
       </c>
       <c r="K35" t="n">
-        <v>842.9429223347668</v>
+        <v>893.7741287892036</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.462702840542</v>
+        <v>1513.293909294978</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.467264779579</v>
+        <v>2234.298471234016</v>
       </c>
       <c r="N35" t="n">
-        <v>2969.999193969362</v>
+        <v>2971.583449151122</v>
       </c>
       <c r="O35" t="n">
-        <v>3652.861230428501</v>
+        <v>3654.44548561026</v>
       </c>
       <c r="P35" t="n">
-        <v>4201.167179115849</v>
+        <v>4202.751434297608</v>
       </c>
       <c r="Q35" t="n">
-        <v>4564.749365221855</v>
+        <v>4566.333620403615</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S35" t="n">
-        <v>4605.476787028165</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T35" t="n">
-        <v>4404.378536570207</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.046105152479</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.094115671631</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.43635826424</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.081497865883</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.053063752795</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.6291563257736</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C36" t="n">
-        <v>769.1761270446466</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D36" t="n">
-        <v>620.2417173833953</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E36" t="n">
-        <v>461.0042623779398</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F36" t="n">
-        <v>314.4697044048247</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G36" t="n">
-        <v>178.6894541647542</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>94.88738072612963</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K36" t="n">
-        <v>424.3254056113307</v>
+        <v>573.0441050413343</v>
       </c>
       <c r="L36" t="n">
-        <v>424.3254056113307</v>
+        <v>699.3689196510031</v>
       </c>
       <c r="M36" t="n">
-        <v>965.2247127665249</v>
+        <v>699.3689196510031</v>
       </c>
       <c r="N36" t="n">
-        <v>1587.320676165861</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O36" t="n">
-        <v>2134.197151166055</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.780669592131</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.780669592131</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.168964849488</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>747.7393781476344</v>
+        <v>562.9550599890986</v>
       </c>
       <c r="C37" t="n">
-        <v>578.9140930824508</v>
+        <v>394.0188770611917</v>
       </c>
       <c r="D37" t="n">
-        <v>428.9083515328384</v>
+        <v>394.0188770611917</v>
       </c>
       <c r="E37" t="n">
-        <v>428.9083515328384</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F37" t="n">
-        <v>282.1293018976512</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G37" t="n">
-        <v>115.0260049349532</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J37" t="n">
-        <v>172.9074769327808</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K37" t="n">
-        <v>432.6448948985994</v>
+        <v>432.4591980117248</v>
       </c>
       <c r="L37" t="n">
-        <v>820.5154039769886</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.853687016703</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.658243803665</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.789391813949</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P37" t="n">
-        <v>2312.428517645409</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q37" t="n">
-        <v>2430.250342194098</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2430.250342194098</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S37" t="n">
-        <v>2430.250342194098</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T37" t="n">
-        <v>2210.682457771204</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U37" t="n">
-        <v>1921.717141948654</v>
+        <v>1737.487313103733</v>
       </c>
       <c r="V37" t="n">
-        <v>1667.14355160549</v>
+        <v>1482.802824897846</v>
       </c>
       <c r="W37" t="n">
-        <v>1377.837279431252</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X37" t="n">
-        <v>1149.958626395958</v>
+        <v>965.3961039628684</v>
       </c>
       <c r="Y37" t="n">
-        <v>929.276945115151</v>
+        <v>744.6035248193383</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2316.676938649612</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C38" t="n">
-        <v>1947.7144217092</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D38" t="n">
-        <v>1589.44872310245</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E38" t="n">
-        <v>1203.660470504205</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F38" t="n">
-        <v>792.6745657145977</v>
+        <v>794.2588208963568</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2440287091278</v>
+        <v>380.2757138127632</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8483481516064</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3125385470848</v>
+        <v>373.3442236507179</v>
       </c>
       <c r="K38" t="n">
-        <v>842.9429223347665</v>
+        <v>842.9746074383977</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.462702840541</v>
+        <v>1462.49438794417</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.467264779579</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N38" t="n">
-        <v>2969.999193969362</v>
+        <v>2920.783927800308</v>
       </c>
       <c r="O38" t="n">
-        <v>3652.861230428501</v>
+        <v>3603.645964259444</v>
       </c>
       <c r="P38" t="n">
-        <v>4201.167179115849</v>
+        <v>4151.951912946789</v>
       </c>
       <c r="Q38" t="n">
-        <v>4564.749365221855</v>
+        <v>4515.534099052794</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S38" t="n">
-        <v>4605.365889165442</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T38" t="n">
-        <v>4404.156740844761</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U38" t="n">
-        <v>4150.71341156431</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V38" t="n">
-        <v>3819.650524220739</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W38" t="n">
-        <v>3466.881868950625</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X38" t="n">
-        <v>3093.416110689545</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y38" t="n">
-        <v>2703.276778713734</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.6291563257736</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C39" t="n">
-        <v>769.1761270446466</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D39" t="n">
-        <v>620.2417173833953</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E39" t="n">
-        <v>461.0042623779398</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F39" t="n">
-        <v>314.4697044048247</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G39" t="n">
-        <v>178.6894541647543</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J39" t="n">
-        <v>241.4646447998178</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="K39" t="n">
-        <v>571.9733873631765</v>
+        <v>243.9627910411712</v>
       </c>
       <c r="L39" t="n">
-        <v>571.9733873631765</v>
+        <v>734.6951238849206</v>
       </c>
       <c r="M39" t="n">
-        <v>1154.246957207354</v>
+        <v>734.6951238849206</v>
       </c>
       <c r="N39" t="n">
-        <v>1776.34292060669</v>
+        <v>1356.791087284254</v>
       </c>
       <c r="O39" t="n">
-        <v>2323.219395606885</v>
+        <v>1903.667562284447</v>
       </c>
       <c r="P39" t="n">
-        <v>2323.219395606885</v>
+        <v>2323.251080710521</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.168964849488</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>808.4725208672194</v>
+        <v>567.7486935666598</v>
       </c>
       <c r="C40" t="n">
-        <v>689.1377100223617</v>
+        <v>403.1266155873938</v>
       </c>
       <c r="D40" t="n">
-        <v>543.2242776959436</v>
+        <v>257.3240811236987</v>
       </c>
       <c r="E40" t="n">
-        <v>399.5143911994681</v>
+        <v>256.7484380283876</v>
       </c>
       <c r="F40" t="n">
-        <v>256.8276507874754</v>
+        <v>256.7484380283876</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J40" t="n">
-        <v>176.9183492024336</v>
+        <v>177.0587253013231</v>
       </c>
       <c r="K40" t="n">
-        <v>440.6666394379051</v>
+        <v>440.9157065320485</v>
       </c>
       <c r="L40" t="n">
-        <v>832.5480207859473</v>
+        <v>832.9057788753444</v>
       </c>
       <c r="M40" t="n">
-        <v>1255.897176095315</v>
+        <v>1256.363625179965</v>
       </c>
       <c r="N40" t="n">
-        <v>1674.712605151929</v>
+        <v>1675.287745231834</v>
       </c>
       <c r="O40" t="n">
-        <v>2045.854625431867</v>
+        <v>2046.538456507025</v>
       </c>
       <c r="P40" t="n">
-        <v>2340.504623532979</v>
+        <v>2341.297145603391</v>
       </c>
       <c r="Q40" t="n">
-        <v>2462.337320351322</v>
+        <v>2463.238533416989</v>
       </c>
       <c r="R40" t="n">
-        <v>2462.337320351322</v>
+        <v>2399.693293324131</v>
       </c>
       <c r="S40" t="n">
-        <v>2462.337320351322</v>
+        <v>2220.837208011701</v>
       </c>
       <c r="T40" t="n">
-        <v>2246.861745151622</v>
+        <v>2005.472530674724</v>
       </c>
       <c r="U40" t="n">
-        <v>1961.988738552266</v>
+        <v>1720.710421938091</v>
       </c>
       <c r="V40" t="n">
-        <v>1711.507457432296</v>
+        <v>1470.340038680845</v>
       </c>
       <c r="W40" t="n">
-        <v>1426.293494481253</v>
+        <v>1185.236973592525</v>
       </c>
       <c r="X40" t="n">
-        <v>1202.507150669154</v>
+        <v>961.5615276431483</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.9177786115415</v>
+        <v>745.0830534482589</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.03297828421</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963575</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127639</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160777</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>373.3442236507186</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>842.9746074383984</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.494387944171</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2920.783927800308</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3603.645964259444</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4151.95191294679</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4515.534099052795</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>94.88738072612932</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>242.5353624779744</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>573.0441050413318</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>1063.776437885081</v>
       </c>
       <c r="M42" t="n">
-        <v>1025.119922845744</v>
+        <v>1655.794792137207</v>
       </c>
       <c r="N42" t="n">
-        <v>1652.717886400351</v>
+        <v>1868.341358050537</v>
       </c>
       <c r="O42" t="n">
-        <v>2204.627616639638</v>
+        <v>1868.341358050537</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2287.924876476611</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2518.486150461857</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>921.9831621891568</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>778.3953859427356</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>653.6271532118857</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>531.0624663109783</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>409.520925494554</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>267.6551373506186</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>151.1308270705347</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296846</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>482.1471447887715</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>894.7529362604291</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693412</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873641</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277194</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501922</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.16428644388</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2585.653348083867</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2427.831564504283</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900151</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1969.773381896363</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371962</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.368537016487</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799955</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337911</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127631</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>93.84834815160639</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>373.3442236507179</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>842.9746074383977</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.49438794417</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2971.583449151129</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610264</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.75143429761</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403615</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>424.3570907149644</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>729.4465287982193</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1321.464883050345</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1321.464883050345</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1868.341358050537</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2287.924876476611</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2518.486150461857</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>921.9831621891565</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>778.3953859427353</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>653.6271532118853</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>531.062466310978</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>409.5209254945535</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>267.6551373506186</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705347</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296844</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>482.1471447887714</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>894.7529362604287</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693411</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873641</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277193</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501921</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.16428644388</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2585.653348083867</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2427.831564504282</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.50118890015</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1969.773381896363</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371962</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.368537016487</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799955</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337911</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>338.5992815305711</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8936,16 +8936,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>176.2173930448432</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>344.7025836476837</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>34.13957882093973</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9407,22 +9407,22 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>342.317075859813</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,25 +9635,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>79.70465870845339</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9875,28 +9875,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>7.630896635344868</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>258.621178561693</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>73.3473165083372</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>258.6211785616908</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>288.0478149561016</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277489</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>51.31264782909273</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>49.74439522492605</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>49.74439522492673</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>51.31264782911305</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>51.31264782911214</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>51.31264782911194</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>25.79859598454549</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>205.8103709312227</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>105.074288727013</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>80.37290984114145</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>116.5491736627763</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>178.3446460444187</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696666</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>123.3849218082809</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>32.92359802148793</v>
       </c>
       <c r="F25" t="n">
-        <v>81.02798066791264</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>65.25996010887327</v>
+        <v>105.0742887270138</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>105.0742887270177</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>154.1915859970759</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983822</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983829</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004763</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.769025331442</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>51.45378818597035</v>
+        <v>92.48912964370325</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.3241737624733</v>
+        <v>14.80719190324734</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>119.3469524397465</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>81.69478786031311</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.07096270698764</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S37" t="n">
-        <v>181.2286994743631</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>44.94418334716055</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>141.5931120830569</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>141.150084123777</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>136.2928147768955</v>
+        <v>136.1830258927997</v>
       </c>
       <c r="I40" t="n">
-        <v>77.64340172935057</v>
+        <v>77.53361284525498</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>63.01957657602512</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>177.1773133434005</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>973822.9825961718</v>
+        <v>973822.9825961717</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>973822.9825961716</v>
+        <v>973822.9825961717</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>973822.9825961718</v>
+        <v>973822.9825961717</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>972348.5671103761</v>
+        <v>972291.9093474246</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>975130.3097607424</v>
+        <v>975224.417395881</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>988909.7876272143</v>
+        <v>989522.4606422939</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>988909.7876272143</v>
+        <v>989522.4606422939</v>
       </c>
     </row>
   </sheetData>
@@ -26317,10 +26317,10 @@
         <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>436789.9655756815</v>
+        <v>436789.9655756814</v>
       </c>
       <c r="F2" t="n">
         <v>436789.9655756814</v>
@@ -26329,31 +26329,31 @@
         <v>436789.9655756815</v>
       </c>
       <c r="H2" t="n">
+        <v>436789.9655756815</v>
+      </c>
+      <c r="I2" t="n">
         <v>436789.9655756814</v>
-      </c>
-      <c r="I2" t="n">
-        <v>436789.9655756812</v>
       </c>
       <c r="J2" t="n">
         <v>436789.9655756814</v>
       </c>
       <c r="K2" t="n">
-        <v>436789.9655756813</v>
+        <v>436789.9655756815</v>
       </c>
       <c r="L2" t="n">
-        <v>436789.9655756814</v>
+        <v>436789.9655756812</v>
       </c>
       <c r="M2" t="n">
-        <v>443710.1878189364</v>
+        <v>443675.6374152077</v>
       </c>
       <c r="N2" t="n">
-        <v>444985.1532003543</v>
+        <v>445019.7036040831</v>
       </c>
       <c r="O2" t="n">
-        <v>451572.9734253562</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="P2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253559</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>3.310606189188547e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.259845358047945e-09</v>
+        <v>1.951008016476408e-09</v>
       </c>
       <c r="M3" t="n">
-        <v>312959.1464485578</v>
+        <v>312970.0160233569</v>
       </c>
       <c r="N3" t="n">
-        <v>3241.108904769874</v>
+        <v>3416.771119320585</v>
       </c>
       <c r="O3" t="n">
-        <v>22827.9383966837</v>
+        <v>16659.16697241329</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="F4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>21619.60799709185</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21619.60799709183</v>
       </c>
       <c r="H4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="K4" t="n">
+        <v>21619.60799709199</v>
+      </c>
+      <c r="L4" t="n">
         <v>21619.60799709185</v>
       </c>
-      <c r="L4" t="n">
-        <v>21619.6079970921</v>
-      </c>
       <c r="M4" t="n">
-        <v>5156.962217674972</v>
+        <v>5069.915760662909</v>
       </c>
       <c r="N4" t="n">
-        <v>6490.070157725666</v>
+        <v>6475.275729222793</v>
       </c>
       <c r="O4" t="n">
-        <v>12448.50789975162</v>
+        <v>13327.39591959026</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.5078997516</v>
+        <v>13327.39591959026</v>
       </c>
     </row>
     <row r="5">
@@ -26494,22 +26494,22 @@
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
+        <v>96383.51825371361</v>
+      </c>
+      <c r="L5" t="n">
         <v>96383.51825371367</v>
       </c>
-      <c r="L5" t="n">
-        <v>96383.51825371358</v>
-      </c>
       <c r="M5" t="n">
-        <v>100915.1886201729</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="N5" t="n">
-        <v>101255.7846008168</v>
+        <v>101289.0951212765</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065312</v>
       </c>
       <c r="P5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065312</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26525,43 @@
         <v>176507.2989695168</v>
       </c>
       <c r="D6" t="n">
-        <v>176507.2989695168</v>
+        <v>176507.2989695167</v>
       </c>
       <c r="E6" t="n">
-        <v>-408590.5746685308</v>
+        <v>-408657.7701587567</v>
       </c>
       <c r="F6" t="n">
-        <v>318786.8393248759</v>
+        <v>318719.6438346501</v>
       </c>
       <c r="G6" t="n">
-        <v>318786.839324876</v>
+        <v>318719.6438346502</v>
       </c>
       <c r="H6" t="n">
-        <v>318786.8393248759</v>
+        <v>318719.6438346502</v>
       </c>
       <c r="I6" t="n">
-        <v>318786.8393248757</v>
+        <v>318719.6438346501</v>
       </c>
       <c r="J6" t="n">
-        <v>142363.620132283</v>
+        <v>142296.4246420572</v>
       </c>
       <c r="K6" t="n">
-        <v>318786.8393248754</v>
+        <v>318719.6438346517</v>
       </c>
       <c r="L6" t="n">
-        <v>318786.8393248786</v>
+        <v>318719.6438346479</v>
       </c>
       <c r="M6" t="n">
-        <v>24678.89053253077</v>
+        <v>24669.76919208503</v>
       </c>
       <c r="N6" t="n">
-        <v>333998.1895370419</v>
+        <v>333808.7740441666</v>
       </c>
       <c r="O6" t="n">
-        <v>313132.4112750055</v>
+        <v>318546.666026821</v>
       </c>
       <c r="P6" t="n">
-        <v>335960.349671689</v>
+        <v>335205.8329992344</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.161175015058443</v>
+        <v>4.270963899154263</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467088</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>25.0949226146709</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26762,22 +26762,22 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
+        <v>1089.776700593296</v>
+      </c>
+      <c r="L3" t="n">
         <v>1089.776700593299</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1089.776700593295</v>
       </c>
       <c r="M3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716382</v>
       </c>
     </row>
     <row r="4">
@@ -26820,16 +26820,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
     </row>
   </sheetData>
@@ -26938,13 +26938,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.051386130962539</v>
+        <v>4.270963899154263</v>
       </c>
       <c r="O2" t="n">
-        <v>20.12347247698128</v>
+        <v>20.82395871551661</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,19 +26984,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>-1.013629890918548e-12</v>
       </c>
       <c r="L3" t="n">
-        <v>-2.918930828819673e-12</v>
+        <v>2.728484105318785e-12</v>
       </c>
       <c r="M3" t="n">
-        <v>268.2643481230912</v>
+        <v>268.2643481230868</v>
       </c>
       <c r="N3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>-4.092726157978177e-12</v>
       </c>
       <c r="O3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.8170791405327</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>54.96126877750669</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>104.6634441632255</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>14.59587156758263</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>11.18263959690384</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>30.3898744131077</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>140.1217798558932</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>256.0983625302989</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>171.2340993700035</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>316.137056770885</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>45.16989559997521</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>10.81525101172488</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>19.83197231642228</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.1097888840959038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30232,10 +30232,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G38" t="n">
-        <v>1.537044377342397</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.161175015058443</v>
+        <v>4.270963899154263</v>
       </c>
       <c r="C40" t="n">
-        <v>4.161175015058443</v>
+        <v>4.270963899154263</v>
       </c>
       <c r="D40" t="n">
-        <v>4.161175015058443</v>
+        <v>4.270963899154263</v>
       </c>
       <c r="E40" t="n">
-        <v>4.161175015058443</v>
+        <v>4.270963899154263</v>
       </c>
       <c r="F40" t="n">
-        <v>4.161175015058443</v>
+        <v>4.270963899154263</v>
       </c>
       <c r="G40" t="n">
-        <v>4.161175015058443</v>
+        <v>4.270963899154263</v>
       </c>
       <c r="H40" t="n">
-        <v>4.161175015058443</v>
+        <v>4.270963899154263</v>
       </c>
       <c r="I40" t="n">
-        <v>4.161175015058443</v>
+        <v>4.270963899154263</v>
       </c>
       <c r="J40" t="n">
-        <v>4.161175015058443</v>
+        <v>4.270963899154263</v>
       </c>
       <c r="K40" t="n">
-        <v>4.161175015058443</v>
+        <v>4.270963899154263</v>
       </c>
       <c r="L40" t="n">
-        <v>4.161175015058443</v>
+        <v>4.270963899154263</v>
       </c>
       <c r="M40" t="n">
-        <v>4.161175015058443</v>
+        <v>4.270963899154263</v>
       </c>
       <c r="N40" t="n">
-        <v>4.161175015058443</v>
+        <v>4.270963899154263</v>
       </c>
       <c r="O40" t="n">
-        <v>4.161175015058443</v>
+        <v>4.270963899154263</v>
       </c>
       <c r="P40" t="n">
-        <v>4.161175015058443</v>
+        <v>4.270963899154263</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.161175015058443</v>
+        <v>4.270963899154263</v>
       </c>
       <c r="R40" t="n">
-        <v>4.161175015058443</v>
+        <v>4.270963899154263</v>
       </c>
       <c r="S40" t="n">
-        <v>4.161175015058443</v>
+        <v>4.270963899154263</v>
       </c>
       <c r="T40" t="n">
-        <v>4.161175015058443</v>
+        <v>4.270963899154263</v>
       </c>
       <c r="U40" t="n">
-        <v>4.161175015058443</v>
+        <v>4.270963899154263</v>
       </c>
       <c r="V40" t="n">
-        <v>4.161175015058443</v>
+        <v>4.270963899154263</v>
       </c>
       <c r="W40" t="n">
-        <v>4.161175015058443</v>
+        <v>4.270963899154263</v>
       </c>
       <c r="X40" t="n">
-        <v>4.161175015058443</v>
+        <v>4.270963899154263</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.161175015058443</v>
+        <v>4.270963899154263</v>
       </c>
     </row>
     <row r="41">
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467088</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467088</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467088</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467088</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467088</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467088</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467088</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467088</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467088</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467088</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467088</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467088</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467088</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467088</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467088</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467088</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467088</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467088</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467088</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467088</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467088</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467088</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467088</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>25.09492261467088</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>25.0949226146709</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>25.0949226146709</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32075,7 +32075,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32318,7 +32318,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
         <v>593.9283018233475</v>
@@ -32552,10 +32552,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233475</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681588</v>
       </c>
       <c r="H29" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844658</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974796</v>
       </c>
       <c r="J29" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953981</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003798</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623179</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574979</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095008</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099044</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746416</v>
+        <v>629.99498197464</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678168</v>
       </c>
       <c r="R29" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563563</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806931</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451121</v>
+        <v>19.17787942451116</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.350480948934527</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502561</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798527</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752241</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026424</v>
+        <v>221.4611312026433</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353149</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138785</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233463</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837912</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970239</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002918</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987558</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905538</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238307</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898478</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462212</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430534</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311876</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742007</v>
       </c>
       <c r="J31" t="n">
-        <v>138.9375967297391</v>
+        <v>138.9375967297387</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702019</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098814</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316426</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883109</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023085995</v>
       </c>
       <c r="P31" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802164</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895881</v>
+        <v>164.5562817895877</v>
       </c>
       <c r="R31" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712197</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553029</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112278</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780292</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681583</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844653</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974794</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953976</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003791</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L32" t="n">
-        <v>691.356529362317</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574969</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990094997</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099035</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746392</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781674</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R32" t="n">
-        <v>275.198736356356</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806918</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451114</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345266</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502559</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798524</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752231</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026431</v>
+        <v>221.4611312026424</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353145</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138779</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233455</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166838034</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970232</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002912</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987477</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905536</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238302</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898467</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U33" t="n">
-        <v>0.154213684046221</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430531</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311873</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451741999</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J34" t="n">
-        <v>138.9375967297385</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702017</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909881</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316422</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883105</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023085992</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802161</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895875</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712186</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553025</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112267</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780291</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M35" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S35" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T35" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U35" t="n">
         <v>0.436756920190194</v>
@@ -33728,43 +33728,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>266.1552026179235</v>
       </c>
       <c r="M36" t="n">
-        <v>688.4969704424166</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U36" t="n">
         <v>0.1921756201013754</v>
@@ -33819,16 +33819,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M37" t="n">
         <v>383.8803574265022</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P37" t="n">
         <v>296.1865264282424</v>
@@ -33840,7 +33840,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T37" t="n">
         <v>10.46359496551969</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K38" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M38" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687524</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S38" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T38" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U38" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H39" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>275.9770021735818</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K39" t="n">
-        <v>471.6886536848224</v>
+        <v>140.3328138609438</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745706</v>
       </c>
       <c r="M39" t="n">
-        <v>730.2891549767432</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927615</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426184</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982436</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286941</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H40" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J40" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K40" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265022</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P40" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q40" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R40" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T40" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530528</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>471.688653684821</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745706</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>346.0352130058892</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>250.3097721075164</v>
+        <v>557.7961431982436</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>372.8719498286941</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436708</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>471.688653684821</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>446.7255293589195</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N45" t="n">
-        <v>265.5442652399247</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426184</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>557.7961431982436</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>372.8719498286941</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>181.3625385436708</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>794.1893959229033</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35656,16 +35656,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>728.5192284577547</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>897.0044190605952</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>93.75277736316451</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
         <v>451.7942679013292</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>661.3366991265652</v>
@@ -36127,22 +36127,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>850.3700767480321</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013292</v>
@@ -36355,25 +36355,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>587.7576595966725</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36595,28 +36595,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>463.221011027677</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>766.6741794499121</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687127</v>
+        <v>264.134317477049</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265655</v>
+        <v>337.1912865553992</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427828</v>
+        <v>455.5901143923307</v>
       </c>
       <c r="M29" t="n">
-        <v>538.921115830227</v>
+        <v>988.4346493230577</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248959</v>
+        <v>552.3018354129099</v>
       </c>
       <c r="O29" t="n">
-        <v>766.6741794499103</v>
+        <v>888.853182150963</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193721</v>
+        <v>720.5606943908531</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037197</v>
+        <v>463.1092954636232</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222421</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597567</v>
+        <v>94.62350453597665</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609559</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340044</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013279</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004594</v>
+        <v>478.306104600458</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525794</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859615</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127344</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306597</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443191</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701975</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934832</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675395</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226392</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451099</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789332</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687113</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865553986</v>
+        <v>625.2391015115023</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200787</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230566</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N32" t="n">
-        <v>989.648759824893</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509621</v>
+        <v>888.8531821509648</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193697</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037179</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222387</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597637</v>
+        <v>94.62350453597567</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609555</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340037</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013271</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004701</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525787</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P33" t="n">
-        <v>313.635950985961</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306577</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443188</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701972</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934828</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N34" t="n">
-        <v>344.856946167539</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226389</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451096</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789312</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607202</v>
+        <v>333.6317139898129</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N35" t="n">
-        <v>794.4766961512961</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P35" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>127.6008228380493</v>
       </c>
       <c r="M36" t="n">
-        <v>546.3629365203983</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.88971099475643</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K37" t="n">
-        <v>262.3610282483016</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L37" t="n">
-        <v>391.7883930084739</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.5740232724387</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N37" t="n">
-        <v>418.994501805012</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.8395434447319</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P37" t="n">
-        <v>293.5748745772318</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q37" t="n">
-        <v>119.0119439885758</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L38" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M38" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N38" t="n">
-        <v>794.4766961512966</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P38" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136961</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K39" t="n">
-        <v>333.8472147104634</v>
+        <v>2.491374886584814</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>495.6892250946964</v>
       </c>
       <c r="M39" t="n">
-        <v>588.155121054725</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094282</v>
       </c>
       <c r="O39" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981739</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>423.8217357839134</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426726</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>83.94109712571894</v>
+        <v>84.05088600981422</v>
       </c>
       <c r="K40" t="n">
-        <v>266.4124143792642</v>
+        <v>266.5222032633591</v>
       </c>
       <c r="L40" t="n">
-        <v>395.8397791394365</v>
+        <v>395.9495680235311</v>
       </c>
       <c r="M40" t="n">
-        <v>427.6254094034012</v>
+        <v>427.7351982874958</v>
       </c>
       <c r="N40" t="n">
-        <v>423.0458879359745</v>
+        <v>423.1556768200692</v>
       </c>
       <c r="O40" t="n">
-        <v>374.8909295756944</v>
+        <v>375.0007184597891</v>
       </c>
       <c r="P40" t="n">
-        <v>297.6262607081944</v>
+        <v>297.7360495922892</v>
       </c>
       <c r="Q40" t="n">
-        <v>123.0633301195383</v>
+        <v>123.1731190036335</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>178.6700086136952</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.049527853052794</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>333.847214710462</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>495.6892250946964</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>214.6935009225559</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>116.3353646931862</v>
+        <v>423.8217357839134</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>232.8901757426726</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.68303457970686</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>104.8748447253308</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>287.3461619788757</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>416.7735267390477</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030125</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355858</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753057</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078059</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>143.9970777191501</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>-1.26182454822796e-13</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>796.0449487554788</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>333.847214710462</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>308.1711495790453</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N45" t="n">
-        <v>134.2025531565914</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>552.4004797981739</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>423.8217357839134</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>232.8901757426726</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>35.68303457970686</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>104.8748447253309</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>287.3461619788757</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>416.7735267390477</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030125</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355858</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753057</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078059</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>143.9970777191501</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
